--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_18-11.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_18-11.xlsx
@@ -161,6 +161,12 @@
     <t>LEVANIC 500MG 7 F.C. TAB.</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>LIDOCAINE 10% TOPICAL SPRAY 15 GM</t>
   </si>
   <si>
@@ -204,9 +210,6 @@
   </si>
   <si>
     <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
   </si>
   <si>
     <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
@@ -1620,17 +1623,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1638,7 +1641,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1646,17 +1649,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>-72.5</v>
+        <v>38</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1664,7 +1667,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1672,17 +1675,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>350</v>
+        <v>-72.5</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1690,7 +1693,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1704,7 +1707,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>36.5</v>
+        <v>350</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1716,7 +1719,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1724,13 +1727,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1742,7 +1745,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1750,17 +1753,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1768,7 +1771,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1776,17 +1779,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1802,17 +1805,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1820,7 +1823,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1828,17 +1831,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1854,17 +1857,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1872,7 +1875,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1880,17 +1883,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1898,7 +1901,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1906,17 +1909,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1924,7 +1927,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1932,17 +1935,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1958,17 +1961,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>28.199999999999999</v>
+        <v>51</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1976,7 +1979,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1984,13 +1987,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>23</v>
+        <v>28.199999999999999</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2002,7 +2005,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2010,17 +2013,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2036,13 +2039,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2068,11 +2071,11 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2088,17 +2091,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2106,7 +2109,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2114,17 +2117,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2132,7 +2135,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2140,17 +2143,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2158,7 +2161,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2166,7 +2169,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -2184,7 +2187,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2192,13 +2195,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2218,13 +2221,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2236,7 +2239,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2244,17 +2247,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>11.67</v>
+        <v>20</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2262,7 +2265,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2270,17 +2273,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>16</v>
+        <v>11.67</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2288,7 +2291,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2296,17 +2299,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2322,7 +2325,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -2332,7 +2335,7 @@
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2348,17 +2351,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>133.65000000000001</v>
+        <v>20</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2374,17 +2377,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>15</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2400,17 +2403,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2426,17 +2429,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2452,13 +2455,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2478,7 +2481,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
@@ -2504,51 +2507,77 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="6">
+        <v>64</v>
+      </c>
+      <c t="s" r="B67" s="7">
+        <v>97</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c t="s" r="H67" s="8">
+        <v>32</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="9">
+        <v>80</v>
+      </c>
+      <c r="M67" s="9"/>
+      <c t="s" r="N67" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="67" ht="26.25" customHeight="1">
-      <c r="K67" s="10">
-        <v>3247.52</v>
-      </c>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="11">
-        <v>97</v>
-      </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c t="s" r="F68" s="12">
+    <row r="68" ht="25.5" customHeight="1">
+      <c r="K68" s="10">
+        <v>3286.52</v>
+      </c>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+    </row>
+    <row r="69" ht="17.25" customHeight="1">
+      <c t="s" r="A69" s="11">
         <v>98</v>
       </c>
-      <c r="G68" s="12"/>
-      <c r="H68" s="13"/>
-      <c t="s" r="I68" s="14">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c t="s" r="F69" s="12">
         <v>99</v>
       </c>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="13"/>
+      <c t="s" r="I69" s="14">
+        <v>100</v>
+      </c>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="200">
+  <mergeCells count="203">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2745,10 +2774,13 @@
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="I68:N68"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="I69:N69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
